--- a/data/epa_xls/lmopdatade.xlsx
+++ b/data/epa_xls/lmopdatade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776FC4D9-ED11-4E17-850D-6859EACD041E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7095A070-A5B5-4A84-BC7D-5F22B819B2A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <author>Jeanette Alvis</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{E5CFB12A-D052-493A-88BE-665207956D78}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{1293C680-AB0F-4653-88FE-AC831CC2F20C}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{904650C5-7D67-499D-AB94-010D9C7215DC}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{813C1921-3BCC-4A07-8C95-FD34E07AC2AA}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{83752B27-8202-439D-8DCC-7D2D382897D5}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2FF8F823-19B1-46C3-996C-34640F1CEA67}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{459EF793-5C8C-4567-9A58-D8AD3FAE0CA0}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{E75AB98F-B2FC-458A-B3C7-F503766FE1BC}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{9745CA14-F8AF-403F-844B-F16E9942827F}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{2CF3E811-0976-46E1-A815-42B01810C95D}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{1698C43C-B6F9-46B2-BA5C-AB99C6A208D1}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{D560C3C0-E5C7-423B-94A6-CAFA719B6AA1}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{54A4B323-C277-48E3-A7CC-814D6BAD4B42}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{8860E45B-655A-422F-BFE3-327D6CC83394}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{6B1B3936-6774-4FD2-97CD-B21F52B58914}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{1836556C-3A2F-4ACC-8811-ACB632E3B256}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{3D8044DE-5C61-41DB-8919-AFBF459806CC}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{A7E13FAD-1452-4A26-A79D-03200FDAFFD1}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{EEC3D99B-9A92-4B0E-8580-7378DBE95C1C}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{FEC9D369-CFD2-450A-A9A6-9A5BF62FD2FF}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{3C63AC63-A364-455B-91BF-3AF8137CA96B}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{DE5A1749-4F23-4174-879D-E9673B6B3590}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{1C2249A4-7E2B-440F-B4DD-58AF91CACEF9}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{98EEE0C0-3E9E-49B3-B9FB-8ADFB39FA63D}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{428EADDE-D395-4F71-8807-160B22CAAFC5}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{31E36114-E4F0-4DD9-95FE-09DFD6C9C5CA}">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F86BD08E-0A42-4C0B-A7EB-F7E0D20DC5FF}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{0D04D173-09F7-4A2D-93A9-7DF9122D3C47}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{204BA802-93FB-490A-BE09-38A7AA7DF630}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{AF633E53-65B3-4C42-8916-E76B9C10A901}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{D59BF70C-33CD-4748-B00A-DF28E3C5EEBD}">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{239418FE-F731-414A-98AD-86C8FA6753AF}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{AB1A8800-9781-43E3-95D5-9B7F64ABA6C1}">
       <text>
         <r>
           <rPr>
@@ -425,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{E98CFBFB-A89C-4805-9032-AC7A1FCDEDBB}">
       <text>
         <r>
           <rPr>
@@ -434,12 +434,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Capacity in megawatts for electricity-generating projects
+          <t xml:space="preserve">Actual or estimated electric generation in megawatts for electricity-generating projects
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{E7241E6E-3285-49B3-B524-EEF1783784EC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rated capacity in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{F0DBDD07-8E70-4EA4-8FDC-DFD9BAD1B4F1}">
       <text>
         <r>
           <rPr>
@@ -453,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{93F94E50-D51A-4B42-B145-EB600E8AF98E}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{EDA395E3-45CF-4939-92A2-7CCA339AB2E2}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="136">
   <si>
     <t>GHGRP ID</t>
   </si>
@@ -567,9 +581,6 @@
   </si>
   <si>
     <t>Project Type Category</t>
-  </si>
-  <si>
-    <t>MW Capacity</t>
   </si>
   <si>
     <t>LFG Flow to Project (mmscfd)</t>
@@ -708,9 +719,6 @@
     <t>Specific type of LFG energy project technology</t>
   </si>
   <si>
-    <t>Capacity in megawatts for electricity-generating projects</t>
-  </si>
-  <si>
     <t>Amount of landfill gas flowing to project or that will flow to the project when it becomes operational in million standard cubic feet per day</t>
   </si>
   <si>
@@ -1016,6 +1024,18 @@
   </si>
   <si>
     <t>Condensate Evaporation</t>
+  </si>
+  <si>
+    <t>Actual MW Generation</t>
+  </si>
+  <si>
+    <t>Rated MW Capacity</t>
+  </si>
+  <si>
+    <t>Actual or estimated electric generation in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>Rated capacity in megawatts for electricity-generating projects</t>
   </si>
 </sst>
 </file>
@@ -1439,6 +1459,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1484,19 +1517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1879,10 +1899,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>41</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -1904,36 +1924,36 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9"/>
@@ -1948,70 +1968,70 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="61"/>
+      <c r="A12" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="48" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="49"/>
+      <c r="C17" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -2020,20 +2040,20 @@
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="49"/>
+      <c r="A21" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -2044,16 +2064,16 @@
     <row r="24" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D24" s="49"/>
+      <c r="C24" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2075,14 +2095,14 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Summary for 
 Current LMOP Landfill and LFG Energy Project Database - Delaware</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF12"/>
+  <dimension ref="A1:AG12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -2108,7 +2128,7 @@
     <col min="13" max="15" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.33203125" customWidth="1"/>
     <col min="17" max="17" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" customWidth="1"/>
+    <col min="18" max="18" width="6.33203125" customWidth="1"/>
     <col min="19" max="20" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8.33203125" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
@@ -2117,13 +2137,13 @@
     <col min="25" max="25" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.44140625" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" style="47" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.33203125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2206,45 +2226,48 @@
         <v>25</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="AC1" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AE1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AF1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AG1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5">
         <v>1829</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>94</v>
       </c>
       <c r="I2" s="5">
         <v>39.730800000000002</v>
@@ -2253,10 +2276,10 @@
         <v>-75.52</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M2" s="5">
         <v>1985</v>
@@ -2265,31 +2288,31 @@
         <v>2060</v>
       </c>
       <c r="O2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6">
+        <v>15772963</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>2018</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="6">
-        <v>15259416</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>2017</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="S2" s="5">
-        <v>4.1760000000000002</v>
+        <v>4.351</v>
       </c>
       <c r="T2" s="5">
         <v>0.57599999999999996</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X2" s="7">
         <v>34700</v>
@@ -2298,45 +2321,46 @@
         <v>41274</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5">
         <v>4.5</v>
       </c>
-      <c r="AD2" s="5">
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5">
         <v>2.5</v>
       </c>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-    </row>
-    <row r="3" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B3" s="10">
         <v>1829</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="I3" s="10">
         <v>39.730800000000002</v>
@@ -2345,10 +2369,10 @@
         <v>-75.52</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M3" s="10">
         <v>1985</v>
@@ -2357,31 +2381,31 @@
         <v>2060</v>
       </c>
       <c r="O3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="11">
+        <v>15772963</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="11">
-        <v>15259416</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S3" s="10">
-        <v>4.1760000000000002</v>
+        <v>4.351</v>
       </c>
       <c r="T3" s="10">
         <v>0.57599999999999996</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X3" s="12">
         <v>37987</v>
@@ -2390,45 +2414,46 @@
         <v>41274</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10">
         <v>7</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10">
         <v>3.9</v>
       </c>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-    </row>
-    <row r="4" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+    </row>
+    <row r="4" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B4" s="10">
         <v>1829</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="H4" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="I4" s="10">
         <v>39.730800000000002</v>
@@ -2437,10 +2462,10 @@
         <v>-75.52</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M4" s="10">
         <v>1985</v>
@@ -2449,31 +2474,31 @@
         <v>2060</v>
       </c>
       <c r="O4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="11">
+        <v>15772963</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="11">
-        <v>15259416</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S4" s="10">
-        <v>4.1760000000000002</v>
+        <v>4.351</v>
       </c>
       <c r="T4" s="10">
         <v>0.57599999999999996</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X4" s="12">
         <v>40179</v>
@@ -2482,45 +2507,46 @@
         <v>41274</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10">
         <v>1.4</v>
       </c>
-      <c r="AD4" s="10">
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="10">
         <v>0.8</v>
       </c>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-    </row>
-    <row r="5" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="10">
         <v>1829</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="I5" s="10">
         <v>39.730800000000002</v>
@@ -2529,10 +2555,10 @@
         <v>-75.52</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M5" s="10">
         <v>1985</v>
@@ -2541,80 +2567,83 @@
         <v>2060</v>
       </c>
       <c r="O5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="11">
+        <v>15772963</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="11">
-        <v>15259416</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S5" s="10">
-        <v>4.1760000000000002</v>
+        <v>4.351</v>
       </c>
       <c r="T5" s="10">
         <v>0.57599999999999996</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="X5" s="12">
         <v>41275</v>
       </c>
       <c r="Y5" s="12"/>
       <c r="Z5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB5" s="10"/>
       <c r="AC5" s="10">
         <v>2.2000000000000002</v>
       </c>
       <c r="AD5" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AE5" s="10">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AE5" s="65">
-        <v>0.99399999999999999</v>
-      </c>
-      <c r="AF5" s="65">
-        <v>0.1162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF5" s="50">
+        <v>9.9400000000000002E-2</v>
+      </c>
+      <c r="AG5" s="50">
+        <v>1.1610000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="10">
         <v>1829</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="I6" s="10">
         <v>39.730800000000002</v>
@@ -2623,10 +2652,10 @@
         <v>-75.52</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M6" s="10">
         <v>1985</v>
@@ -2635,74 +2664,81 @@
         <v>2060</v>
       </c>
       <c r="O6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="11">
+        <v>15772963</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="11">
-        <v>15259416</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S6" s="10">
-        <v>4.1760000000000002</v>
+        <v>4.351</v>
       </c>
       <c r="T6" s="10">
         <v>0.57599999999999996</v>
       </c>
       <c r="U6" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="V6" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="W6" s="10" t="s">
         <v>117</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>119</v>
       </c>
       <c r="X6" s="12">
         <v>43646</v>
       </c>
       <c r="Y6" s="12"/>
       <c r="Z6" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB6" s="10"/>
       <c r="AC6" s="10">
         <v>2</v>
       </c>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-    </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AD6" s="10">
+        <v>2</v>
+      </c>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B7" s="10">
         <v>1829</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>92</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>94</v>
       </c>
       <c r="I7" s="10">
         <v>39.730800000000002</v>
@@ -2711,10 +2747,10 @@
         <v>-75.52</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M7" s="10">
         <v>1985</v>
@@ -2723,80 +2759,83 @@
         <v>2060</v>
       </c>
       <c r="O7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="11">
+        <v>15772963</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P7" s="11">
-        <v>15259416</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="S7" s="10">
-        <v>4.1760000000000002</v>
+        <v>4.351</v>
       </c>
       <c r="T7" s="10">
         <v>0.57599999999999996</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="X7" s="12">
         <v>42582</v>
       </c>
       <c r="Y7" s="12"/>
       <c r="Z7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AB7" s="10"/>
       <c r="AC7" s="10">
         <v>2.5</v>
       </c>
       <c r="AD7" s="10">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="10">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AE7" s="65">
+      <c r="AF7" s="50">
         <v>0.11294999999999999</v>
       </c>
-      <c r="AF7" s="65">
-        <v>0.1321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AG7" s="50">
+        <v>1.319E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="10">
         <v>1832</v>
       </c>
       <c r="C8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="H8" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="I8" s="10">
         <v>38.595999999999997</v>
@@ -2805,10 +2844,10 @@
         <v>-75.438999999999993</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M8" s="10">
         <v>1984</v>
@@ -2817,78 +2856,81 @@
         <v>2029</v>
       </c>
       <c r="O8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="11">
+        <v>6519655</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R8" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P8" s="11">
-        <v>6216784</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S8" s="10">
         <v>3.16</v>
       </c>
       <c r="T8" s="10"/>
       <c r="U8" s="10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="V8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W8" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="X8" s="12">
         <v>39014</v>
       </c>
       <c r="Y8" s="12"/>
       <c r="Z8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10">
         <v>4.24</v>
       </c>
       <c r="AD8" s="10">
+        <v>4.24</v>
+      </c>
+      <c r="AE8" s="10">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AE8" s="65">
+      <c r="AF8" s="50">
         <v>0.19156000000000001</v>
       </c>
-      <c r="AF8" s="65">
-        <v>0.224</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AG8" s="50">
+        <v>2.2370000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="10">
         <v>1832</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="G9" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="H9" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="I9" s="10">
         <v>38.595999999999997</v>
@@ -2897,10 +2939,10 @@
         <v>-75.438999999999993</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M9" s="10">
         <v>1984</v>
@@ -2909,78 +2951,81 @@
         <v>2029</v>
       </c>
       <c r="O9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="11">
+        <v>6519655</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R9" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P9" s="11">
-        <v>6216784</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S9" s="10">
         <v>3.16</v>
       </c>
       <c r="T9" s="10"/>
       <c r="U9" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X9" s="12">
         <v>40210</v>
       </c>
       <c r="Y9" s="12"/>
       <c r="Z9" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB9" s="10"/>
       <c r="AC9" s="10">
         <v>1.06</v>
       </c>
       <c r="AD9" s="10">
+        <v>1.06</v>
+      </c>
+      <c r="AE9" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AE9" s="65">
-        <v>0.47889999999999999</v>
-      </c>
-      <c r="AF9" s="65">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="AF9" s="50">
+        <v>4.7890000000000002E-2</v>
+      </c>
+      <c r="AG9" s="50">
+        <v>5.5900000000000004E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B10" s="10">
         <v>1830</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>127</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="I10" s="10">
         <v>39.705399999999997</v>
@@ -2989,10 +3034,10 @@
         <v>-75.532600000000002</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M10" s="10">
         <v>1966</v>
@@ -3001,7 +3046,7 @@
         <v>1985</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="P10" s="11">
         <v>4547062</v>
@@ -3010,18 +3055,18 @@
         <v>1985</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
       <c r="U10" s="10" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X10" s="12">
         <v>36739</v>
@@ -3030,43 +3075,44 @@
         <v>37226</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
-      <c r="AD10" s="10">
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10">
         <v>0.57599999999999996</v>
       </c>
-      <c r="AE10" s="65"/>
-      <c r="AF10" s="65"/>
-    </row>
-    <row r="11" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+    </row>
+    <row r="11" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B11" s="10">
         <v>1831</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="H11" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="I11" s="10">
         <v>39.032699999999998</v>
@@ -3075,10 +3121,10 @@
         <v>-75.725099999999998</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M11" s="10">
         <v>1980</v>
@@ -3087,78 +3133,81 @@
         <v>2036</v>
       </c>
       <c r="O11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="11">
+        <v>5969167</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R11" s="10" t="s">
         <v>32</v>
-      </c>
-      <c r="P11" s="11">
-        <v>5741358</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="S11" s="10">
         <v>2.84</v>
       </c>
       <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="V11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W11" s="10" t="s">
         <v>34</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>35</v>
       </c>
       <c r="X11" s="12">
         <v>39083</v>
       </c>
       <c r="Y11" s="12"/>
       <c r="Z11" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10">
         <v>3.18</v>
       </c>
       <c r="AD11" s="10">
+        <v>3.18</v>
+      </c>
+      <c r="AE11" s="10">
         <v>1.1299999999999999</v>
       </c>
-      <c r="AE11" s="65">
+      <c r="AF11" s="50">
         <v>0.14366999999999999</v>
       </c>
-      <c r="AF11" s="65">
-        <v>0.16800000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AG11" s="50">
+        <v>1.678E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B12" s="14">
         <v>1831</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" s="14" t="s">
+      <c r="G12" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>112</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>114</v>
       </c>
       <c r="I12" s="14">
         <v>39.032699999999998</v>
@@ -3167,10 +3216,10 @@
         <v>-75.725099999999998</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M12" s="14">
         <v>1980</v>
@@ -3179,56 +3228,59 @@
         <v>2036</v>
       </c>
       <c r="O12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="15">
+        <v>5969167</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>2018</v>
+      </c>
+      <c r="R12" s="14" t="s">
         <v>32</v>
-      </c>
-      <c r="P12" s="15">
-        <v>5741358</v>
-      </c>
-      <c r="Q12" s="14">
-        <v>2017</v>
-      </c>
-      <c r="R12" s="14" t="s">
-        <v>33</v>
       </c>
       <c r="S12" s="14">
         <v>2.84</v>
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="V12" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="X12" s="16">
         <v>41711</v>
       </c>
       <c r="Y12" s="16"/>
       <c r="Z12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA12" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB12" s="14"/>
       <c r="AC12" s="14">
         <v>2</v>
       </c>
       <c r="AD12" s="14">
+        <v>2</v>
+      </c>
+      <c r="AE12" s="14">
         <v>0.75</v>
       </c>
-      <c r="AE12" s="66">
-        <v>0.93600000000000005</v>
-      </c>
-      <c r="AF12" s="66">
-        <v>0.156</v>
+      <c r="AF12" s="51">
+        <v>9.0359999999999996E-2</v>
+      </c>
+      <c r="AG12" s="51">
+        <v>1.055E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG12">
     <sortCondition ref="C2:C12"/>
     <sortCondition ref="U2:U12"/>
   </sortState>
@@ -3237,7 +3289,7 @@
   <pageMargins left="0" right="0" top="0.8" bottom="0.9" header="0.4" footer="0.3"/>
   <pageSetup paperSize="5" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Delaware&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Delaware&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;8&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
@@ -3249,7 +3301,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3267,10 +3319,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3278,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3286,7 +3338,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3294,7 +3346,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3302,7 +3354,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3310,7 +3362,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3318,7 +3370,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3326,7 +3378,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3334,7 +3386,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3342,7 +3394,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3350,7 +3402,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3358,7 +3410,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3366,7 +3418,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3374,7 +3426,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3382,7 +3434,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3390,7 +3442,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3398,7 +3450,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3406,7 +3458,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -3414,7 +3466,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3422,7 +3474,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3430,7 +3482,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3438,7 +3490,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3446,7 +3498,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3454,7 +3506,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3462,7 +3514,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3470,7 +3522,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3478,7 +3530,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3486,47 +3538,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>68</v>
+      <c r="A30" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>69</v>
+      <c r="A31" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>71</v>
+      <c r="B34" s="46" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
